--- a/rawconfig/map.xlsx
+++ b/rawconfig/map.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="monster" sheetId="2" r:id="rId2"/>
+    <sheet name="wave" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,336 @@
   </si>
   <si>
     <t>pic6</t>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility</t>
+  </si>
+  <si>
+    <t>asset_id</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>attack_range</t>
+  </si>
+  <si>
+    <t>attack_speed</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>death_sound</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>hit_effect_bone</t>
+  </si>
+  <si>
+    <t>hit_sound</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>scale_ratio</t>
+  </si>
+  <si>
+    <t>skill_0_id</t>
+  </si>
+  <si>
+    <t>skill_1_id</t>
+  </si>
+  <si>
+    <t>skill_2_id</t>
+  </si>
+  <si>
+    <t>skill_3_id</t>
+  </si>
+  <si>
+    <t>skill_4_id</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>upgrade_id</t>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>资源id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_HM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小蛤蟆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蛤蟆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物波数id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一波id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200000,200001,200002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -561,25 +891,799 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="11.75" customWidth="1"/>
+    <col min="21" max="21" width="16.75" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>200000</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>300</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>13</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>200001</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>800</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>230</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>300</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>15</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>200002</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>300</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>13</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>100001</v>
+      </c>
+      <c r="C6">
+        <v>100002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>100002</v>
+      </c>
+      <c r="C7">
+        <v>100003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>100003</v>
+      </c>
+      <c r="C8">
+        <v>100004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>100004</v>
+      </c>
+      <c r="C9">
+        <v>100005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>100005</v>
+      </c>
+      <c r="C10">
+        <v>100006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>100006</v>
+      </c>
+      <c r="C11">
+        <v>100007</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>100007</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rawconfig/map.xlsx
+++ b/rawconfig/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,22 @@
   </si>
   <si>
     <t>[1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪波数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,15 +771,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,8 +796,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -787,8 +810,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -801,8 +827,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,8 +844,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>100000</v>
       </c>
@@ -826,8 +858,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>100001</v>
       </c>
@@ -837,8 +872,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>100002</v>
       </c>
@@ -848,8 +886,11 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>100003</v>
       </c>
@@ -859,8 +900,11 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>100004</v>
       </c>
@@ -870,8 +914,11 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>100005</v>
       </c>
@@ -880,6 +927,9 @@
       </c>
       <c r="D10" t="s">
         <v>16</v>
+      </c>
+      <c r="E10">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/rawconfig/map.xlsx
+++ b/rawconfig/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,21 +137,6 @@
     <t>scale_ratio</t>
   </si>
   <si>
-    <t>skill_0_id</t>
-  </si>
-  <si>
-    <t>skill_1_id</t>
-  </si>
-  <si>
-    <t>skill_2_id</t>
-  </si>
-  <si>
-    <t>skill_3_id</t>
-  </si>
-  <si>
-    <t>skill_4_id</t>
-  </si>
-  <si>
     <t>strength</t>
   </si>
   <si>
@@ -425,6 +410,22 @@
   </si>
   <si>
     <t>monster_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -811,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -828,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -845,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -941,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,172 +959,162 @@
     <col min="16" max="16" width="12.75" customWidth="1"/>
     <col min="18" max="18" width="11.75" customWidth="1"/>
     <col min="21" max="21" width="16.75" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="11.125" customWidth="1"/>
+    <col min="25" max="25" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1144,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -1165,13 +1156,13 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1180,39 +1171,27 @@
         <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s">
         <v>34</v>
       </c>
       <c r="W3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" t="s">
         <v>35</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" t="s">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1233,7 +1212,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -1260,7 +1239,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1269,34 +1248,22 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>
       </c>
       <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
         <v>35</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>200000</v>
       </c>
@@ -1304,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1328,7 +1295,7 @@
         <v>400</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O5">
         <v>200</v>
@@ -1346,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>18</v>
@@ -1354,29 +1321,14 @@
       <c r="V5">
         <v>0.5</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>13</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>200001</v>
       </c>
@@ -1384,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -1408,7 +1360,7 @@
         <v>800</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O6">
         <v>230</v>
@@ -1426,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
         <v>18</v>
@@ -1434,29 +1386,14 @@
       <c r="V6">
         <v>0.80000001192092896</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>15</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>200002</v>
       </c>
@@ -1464,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1488,7 +1425,7 @@
         <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O7">
         <v>200</v>
@@ -1506,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
         <v>18</v>
@@ -1514,25 +1451,10 @@
       <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>13</v>
-      </c>
-      <c r="AC7">
         <v>0</v>
       </c>
     </row>
@@ -1561,67 +1483,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1632,10 +1554,10 @@
         <v>100001</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1646,10 +1568,10 @@
         <v>100002</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1660,10 +1582,10 @@
         <v>100003</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1674,10 +1596,10 @@
         <v>100004</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1688,10 +1610,10 @@
         <v>100005</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1702,10 +1624,10 @@
         <v>100006</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1716,10 +1638,10 @@
         <v>100007</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1727,10 +1649,10 @@
         <v>100007</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/rawconfig/map.xlsx
+++ b/rawconfig/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,34 @@
   </si>
   <si>
     <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,7 +812,7 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,8 +828,17 @@
       <c r="E1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -814,8 +851,17 @@
       <c r="E2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -831,8 +877,17 @@
       <c r="E3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -848,8 +903,17 @@
       <c r="E4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>100000</v>
       </c>
@@ -862,8 +926,17 @@
       <c r="E5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>2628</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>100001</v>
       </c>
@@ -876,8 +949,17 @@
       <c r="E6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>2628</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>100002</v>
       </c>
@@ -890,8 +972,17 @@
       <c r="E7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>2628</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>100003</v>
       </c>
@@ -904,8 +995,17 @@
       <c r="E8">
         <v>100000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>2628</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>100004</v>
       </c>
@@ -918,8 +1018,17 @@
       <c r="E9">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>2628</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>100005</v>
       </c>
@@ -931,6 +1040,15 @@
       </c>
       <c r="E10">
         <v>100000</v>
+      </c>
+      <c r="F10">
+        <v>2628</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>1891</v>
       </c>
     </row>
   </sheetData>
@@ -944,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
